--- a/data/field-raw/Latimer_JFSP_2018_Data_Spreadsheet_NB.xlsx
+++ b/data/field-raw/Latimer_JFSP_2018_Data_Spreadsheet_NB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYoung\Documents\UC Davis\Research Projects\Post-fire management\postfire-management\data\field-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYoung\Documents\projects\Post-fire management\postfire-management\data\field-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4D045-264F-4CBE-BBCF-EBC417AE3370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB893DF-8FDB-4B12-BABF-D654291F10F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1296" windowWidth="30936" windowHeight="17496" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22176" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plot" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16351" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16351" uniqueCount="1395">
   <si>
     <t>PlotID</t>
   </si>
@@ -4210,6 +4210,9 @@
   </si>
   <si>
     <t>ALL RESPROUTING</t>
+  </si>
+  <si>
+    <t>FuelELitter2</t>
   </si>
 </sst>
 </file>
@@ -5476,9 +5479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AI1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5624,7 +5627,7 @@
         <v>44</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>44</v>
+        <v>1394</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>45</v>
@@ -21374,7 +21377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
